--- a/banks/bankmd/catalog/BankMD_Bank_Operations_List.xlsx
+++ b/banks/bankmd/catalog/BankMD_Bank_Operations_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/bankmd/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE9FEB-93BA-D346-B235-0600D1CA7132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24761B0D-7139-0345-9148-9C8299CCBFE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="460" windowWidth="33640" windowHeight="19900" tabRatio="500" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="460" windowWidth="33640" windowHeight="19900" tabRatio="500" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="125">
   <si>
     <t>Author:</t>
   </si>
@@ -1041,38 +1041,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1086,23 +1059,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1111,6 +1099,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1513,51 +1513,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="77"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="63">
         <v>42895</v>
       </c>
-      <c r="I4" s="78"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1573,228 +1573,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="76"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="72"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="72"/>
+      <c r="I11" s="69"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="72"/>
+      <c r="I13" s="69"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="72"/>
+      <c r="I14" s="69"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="72"/>
+      <c r="I17" s="69"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="69"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1807,286 +1807,238 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="69"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="69"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="69"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="70"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="63"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="63"/>
+      <c r="I25" s="70"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="63"/>
+      <c r="I26" s="70"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="H27" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="65"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="65" t="s">
+      <c r="H28" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="65"/>
+      <c r="I28" s="76"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="65"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="65"/>
+      <c r="I30" s="76"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="63" t="s">
+      <c r="H31" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="70"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>45292</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
       <c r="G32" s="17">
         <v>43323</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="63"/>
+      <c r="I32" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2097,6 +2049,54 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2153,34 +2153,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2625,34 +2625,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2901,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250F2F21-2C71-A44E-8D99-19B33C393088}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2931,34 +2931,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3218,12 +3218,12 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" ht="16">
+    <row r="16" spans="1:12" ht="14" customHeight="1">
       <c r="A16" s="39">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>71</v>
@@ -3231,34 +3231,24 @@
       <c r="D16" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
+      <c r="E16" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12" ht="14" customHeight="1">
-      <c r="A17" s="39">
-        <v>833</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="42"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -3266,27 +3256,37 @@
       <c r="K17" s="36"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" ht="14" customHeight="1">
+    <row r="18" spans="1:12">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
       <c r="E18" s="42"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="30"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="29">
+        <v>313</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -3296,10 +3296,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="29">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>71</v>
@@ -3316,14 +3316,14 @@
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="29">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>71</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="29">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>71</v>
@@ -3359,30 +3359,20 @@
         <v>71</v>
       </c>
       <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="29">
-        <v>317</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="34"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="A23" s="54"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
@@ -3390,12 +3380,22 @@
       <c r="K23" s="36"/>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="28"/>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>250</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
@@ -3406,10 +3406,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="56" t="s">
         <v>71</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="56" t="s">
         <v>71</v>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="56" t="s">
         <v>71</v>
@@ -3477,49 +3477,43 @@
       <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="29">
-        <v>373</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="28"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="54"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="16">
+      <c r="A29" s="58">
+        <v>222</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:12" ht="16">
       <c r="A30" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" s="53" t="s">
         <v>71</v>
@@ -3533,11 +3527,11 @@
       <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:12" ht="16">
-      <c r="A31" s="58">
-        <v>675</v>
+      <c r="A31" s="39">
+        <v>767</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>71</v>
@@ -3549,24 +3543,6 @@
         <v>71</v>
       </c>
       <c r="F31" s="53"/>
-    </row>
-    <row r="32" spans="1:12" ht="16">
-      <c r="A32" s="39">
-        <v>767</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3587,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1634BF78-27FF-7046-97C7-5A11A45E0E9D}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3617,34 +3593,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3906,12 +3882,12 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" ht="16">
+    <row r="16" spans="1:12" ht="14" customHeight="1">
       <c r="A16" s="39">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>71</v>
@@ -3919,38 +3895,26 @@
       <c r="D16" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="30"/>
+      <c r="E16" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12" ht="14" customHeight="1">
-      <c r="A17" s="39">
-        <v>833</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -3972,26 +3936,38 @@
       <c r="K18" s="36"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="14" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="30"/>
+    <row r="19" spans="1:12">
+      <c r="A19" s="29">
+        <v>313</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>71</v>
@@ -4014,10 +3990,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>71</v>
@@ -4040,10 +4016,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="29">
-        <v>712</v>
+        <v>316</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>71</v>
@@ -4066,10 +4042,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="29">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>71</v>
@@ -4088,40 +4064,38 @@
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="34"/>
+      <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="29">
-        <v>318</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="54"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="28"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="A25" s="29">
+        <v>250</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
@@ -4130,12 +4104,12 @@
       <c r="K25" s="36"/>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+    <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="56" t="s">
         <v>71</v>
@@ -4146,7 +4120,9 @@
       <c r="E26" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
@@ -4156,10 +4132,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="56" t="s">
         <v>71</v>
@@ -4182,10 +4158,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="56" t="s">
         <v>71</v>
@@ -4207,51 +4183,43 @@
       <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="29">
-        <v>373</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="28"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" ht="16">
+      <c r="A30" s="58">
+        <v>222</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:12" ht="16">
       <c r="A31" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>71</v>
@@ -4262,14 +4230,16 @@
       <c r="E31" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="53" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="16">
-      <c r="A32" s="58">
-        <v>675</v>
+      <c r="A32" s="39">
+        <v>767</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>71</v>
@@ -4281,26 +4251,6 @@
         <v>71</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16">
-      <c r="A33" s="39">
-        <v>767</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="53" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4353,34 +4303,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4944,13 +4894,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="81" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="82" t="s">
@@ -4962,63 +4912,63 @@
       <c r="F1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="79" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="79" t="s">
+      <c r="V1" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="79" t="s">
+      <c r="W1" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="79" t="s">
+      <c r="X1" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="79" t="s">
+      <c r="Y1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="79" t="s">
+      <c r="Z1" s="84" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
       <c r="F2" s="82"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -5046,12 +4996,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5111,16 +5061,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -5129,6 +5069,16 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5137,10 +5087,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5173,34 +5123,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5552,12 +5502,12 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
+    <row r="20" spans="1:12" ht="14" customHeight="1">
       <c r="A20" s="39">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>71</v>
@@ -5565,38 +5515,26 @@
       <c r="D20" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="30"/>
+      <c r="E20" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="14" customHeight="1">
-      <c r="A21" s="39">
-        <v>833</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -5618,26 +5556,38 @@
       <c r="K22" s="36"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" ht="14" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="30"/>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29">
+        <v>313</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>71</v>
@@ -5660,10 +5610,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>71</v>
@@ -5686,10 +5636,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>712</v>
+        <v>316</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>71</v>
@@ -5712,10 +5662,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>71</v>
@@ -5734,40 +5684,38 @@
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="34"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="29">
-        <v>318</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="54"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="28"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="A29" s="29">
+        <v>250</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -5776,12 +5724,12 @@
       <c r="K29" s="36"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+    <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="56" t="s">
         <v>71</v>
@@ -5792,7 +5740,9 @@
       <c r="E30" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -5802,10 +5752,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>71</v>
@@ -5828,10 +5778,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>71</v>
@@ -5853,24 +5803,12 @@
       <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="29">
-        <v>373</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="A33" s="54"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -5878,26 +5816,38 @@
       <c r="K33" s="36"/>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="54"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="28"/>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="A34" s="29">
+        <v>601</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+    </row>
+    <row r="35" spans="1:12" ht="16">
       <c r="A35" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="57" t="s">
         <v>71</v>
@@ -5908,7 +5858,9 @@
       <c r="E35" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="57" t="s">
+        <v>71</v>
+      </c>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
       <c r="I35" s="57" t="s">
@@ -5918,40 +5870,36 @@
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
     </row>
-    <row r="36" spans="1:12" ht="16">
-      <c r="A36" s="29">
-        <v>600</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>71</v>
-      </c>
+    <row r="36" spans="1:12">
+      <c r="A36" s="54"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
-      <c r="I36" s="57" t="s">
-        <v>71</v>
-      </c>
+      <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
+    <row r="37" spans="1:12" ht="16">
+      <c r="A37" s="29">
+        <v>813</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" s="57"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
@@ -5960,22 +5908,12 @@
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>813</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>71</v>
-      </c>
+    <row r="38" spans="1:12">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
@@ -5984,26 +5922,30 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
+    <row r="39" spans="1:12" ht="16">
+      <c r="A39" s="58">
+        <v>222</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:12" ht="16">
       <c r="A40" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>71</v>
@@ -6014,14 +5956,16 @@
       <c r="E40" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="53" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="58">
-        <v>675</v>
+      <c r="A41" s="39">
+        <v>767</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>71</v>
@@ -6036,39 +5980,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="39">
-        <v>767</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+    <row r="42" spans="1:12">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6085,10 +6009,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6121,34 +6045,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6500,12 +6424,12 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
+    <row r="20" spans="1:12" ht="14" customHeight="1">
       <c r="A20" s="39">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>71</v>
@@ -6513,38 +6437,26 @@
       <c r="D20" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="30"/>
+      <c r="E20" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="14" customHeight="1">
-      <c r="A21" s="39">
-        <v>833</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -6552,7 +6464,7 @@
       <c r="K21" s="36"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" ht="14" customHeight="1">
+    <row r="22" spans="1:12">
       <c r="A22" s="43"/>
       <c r="B22" s="44"/>
       <c r="C22" s="45"/>
@@ -6567,25 +6479,37 @@
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="30"/>
+      <c r="A23" s="29">
+        <v>313</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>71</v>
@@ -6608,10 +6532,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>71</v>
@@ -6634,10 +6558,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>712</v>
+        <v>316</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>71</v>
@@ -6656,14 +6580,14 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="29">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>71</v>
@@ -6684,38 +6608,36 @@
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="29">
-        <v>318</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+    <row r="28" spans="1:12">
+      <c r="A28" s="54"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="54"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="29">
+        <v>250</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -6726,10 +6648,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="56" t="s">
         <v>71</v>
@@ -6740,7 +6662,9 @@
       <c r="E30" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28" t="s">
+        <v>71</v>
+      </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -6750,10 +6674,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>71</v>
@@ -6774,12 +6698,12 @@
       <c r="K31" s="36"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>71</v>
@@ -6800,25 +6724,13 @@
       <c r="K32" s="36"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="29">
-        <v>373</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>71</v>
-      </c>
+    <row r="33" spans="1:12">
+      <c r="A33" s="54"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -6826,26 +6738,38 @@
       <c r="K33" s="36"/>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="54"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="28"/>
+    <row r="34" spans="1:12" ht="16">
+      <c r="A34" s="29">
+        <v>601</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" ht="16">
       <c r="A35" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="57" t="s">
         <v>71</v>
@@ -6856,7 +6780,9 @@
       <c r="E35" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="57" t="s">
+        <v>71</v>
+      </c>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
       <c r="I35" s="57" t="s">
@@ -6866,40 +6792,36 @@
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
     </row>
-    <row r="36" spans="1:12" ht="16">
-      <c r="A36" s="29">
-        <v>600</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>71</v>
-      </c>
+    <row r="36" spans="1:12">
+      <c r="A36" s="54"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="57"/>
       <c r="H36" s="57"/>
-      <c r="I36" s="57" t="s">
-        <v>71</v>
-      </c>
+      <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
+    <row r="37" spans="1:12" ht="16">
+      <c r="A37" s="29">
+        <v>813</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" s="57"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
@@ -6908,22 +6830,12 @@
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>813</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>71</v>
-      </c>
+    <row r="38" spans="1:12">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
@@ -6932,26 +6844,30 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
+    <row r="39" spans="1:12" ht="16">
+      <c r="A39" s="58">
+        <v>222</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:12" ht="16">
       <c r="A40" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>71</v>
@@ -6962,14 +6878,16 @@
       <c r="E40" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="53" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="58">
-        <v>675</v>
+      <c r="A41" s="39">
+        <v>767</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>71</v>
@@ -6984,39 +6902,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="39">
-        <v>767</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+    <row r="42" spans="1:12">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7069,34 +6967,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7381,34 +7279,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7719,34 +7617,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8031,34 +7929,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8340,34 +8238,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
